--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -386,6 +386,9 @@
   <si>
     <t xml:space="preserve">Narrative
 </t>
+  </si>
+  <si>
+    <t>主にレポートの見読性と検索性の向上を目的に、所見を中心としたhuman-readableなnarrativeデータを格納することを推奨する。【詳細参照】</t>
   </si>
   <si>
     <t>主にレポートの見読性と検索性の向上を目的に、所見を中心としたhuman-readableなnarrativeデータを格納することを推奨する。</t>
@@ -513,6 +516,9 @@
 </t>
   </si>
   <si>
+    <t>他のシステムから依頼されたオーダ情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>他のシステムから依頼されたオーダ情報。</t>
   </si>
   <si>
@@ -532,6 +538,9 @@
   </si>
   <si>
     <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>診断レポートのステータス。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートのステータス。</t>
@@ -606,7 +615,7 @@
     <t>endoscopy</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
+    <t>診断レポートの分野を表すコード。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
@@ -872,6 +881,9 @@
 </t>
   </si>
   <si>
+    <t>内視鏡分野の診断レポートを分類するためのコード。【詳細参照】</t>
+  </si>
+  <si>
     <t>内視鏡分野の診断レポートを分類するためのコード。</t>
   </si>
   <si>
@@ -907,6 +919,9 @@
 </t>
   </si>
   <si>
+    <t>診断レポートの対象患者に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>診断レポートの対象患者に関する情報。</t>
   </si>
   <si>
@@ -939,6 +954,9 @@
 </t>
   </si>
   <si>
+    <t>この診断レポートを書くきっかけとなった情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>この診断レポートを書くきっかけとなった情報。</t>
   </si>
   <si>
@@ -971,6 +989,9 @@
 </t>
   </si>
   <si>
+    <t>診断レポートの作成日時。【詳細参照】</t>
+  </si>
+  <si>
     <t>診断レポートの作成日時。</t>
   </si>
   <si>
@@ -1003,6 +1024,9 @@
 </t>
   </si>
   <si>
+    <t>レポート確定日時。【詳細参照】</t>
+  </si>
+  <si>
     <t>レポート確定日時。</t>
   </si>
   <si>
@@ -1032,6 +1056,9 @@
 </t>
   </si>
   <si>
+    <t>内視鏡検査、治療を実施した医師。【詳細参照】</t>
+  </si>
+  <si>
     <t>内視鏡検査、治療を実施した医師。</t>
   </si>
   <si>
@@ -1064,6 +1091,9 @@
 </t>
   </si>
   <si>
+    <t>通常、この診断レポートの確定者。【詳細参照】</t>
+  </si>
+  <si>
     <t>通常、この診断レポートの確定者。</t>
   </si>
   <si>
@@ -1080,6 +1110,9 @@
 </t>
   </si>
   <si>
+    <t>この診断レポートの検体に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>この診断レポートの検体に関する情報。</t>
   </si>
   <si>
@@ -1103,6 +1136,9 @@
 </t>
   </si>
   <si>
+    <t>この診断レポートの一部となるObservationに関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>この診断レポートの一部となるObservationに関する情報。</t>
   </si>
   <si>
@@ -1122,6 +1158,9 @@
 </t>
   </si>
   <si>
+    <t>診断レポートに関連づけれられたDICOM画像検査に関する情報。【詳細参照】</t>
+  </si>
+  <si>
     <t>診断レポートに関連づけれられたDICOM画像検査に関する情報。</t>
   </si>
   <si>
@@ -1140,6 +1179,9 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけられたメディアに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートに関連づけられたメディアに関する情報。</t>
@@ -1181,6 +1223,9 @@
     <t>DiagnosticReport.media.comment</t>
   </si>
   <si>
+    <t>メディアに関するコメント。【詳細参照】</t>
+  </si>
+  <si>
     <t>メディアに関するコメント。</t>
   </si>
   <si>
@@ -1210,6 +1255,9 @@
 </t>
   </si>
   <si>
+    <t>総合診断に相当する要約結論。【詳細参照】</t>
+  </si>
+  <si>
     <t>総合診断に相当する要約結論。</t>
   </si>
   <si>
@@ -1226,6 +1274,9 @@
   </si>
   <si>
     <t>DiagnosticReport.conclusionCode</t>
+  </si>
+  <si>
+    <t>内視鏡診断レポートの要約結論を表す1つ以上のコード。【詳細参照】</t>
   </si>
   <si>
     <t>内視鏡診断レポートの要約結論を表す1つ以上のコード。</t>
@@ -1248,6 +1299,9 @@
   <si>
     <t xml:space="preserve">Attachment
 </t>
+  </si>
+  <si>
+    <t>診断レポート本体。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポート本体。</t>
@@ -2355,10 +2409,10 @@
         <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2408,7 +2462,7 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -2429,7 +2483,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2437,14 +2491,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2463,16 +2517,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2522,7 +2576,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2543,7 +2597,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2551,14 +2605,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2577,16 +2631,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2636,7 +2690,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2648,7 +2702,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2657,7 +2711,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2665,14 +2719,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2691,19 +2745,19 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -2752,7 +2806,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2764,7 +2818,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2773,7 +2827,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -2781,14 +2835,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2807,19 +2861,19 @@
         <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -2868,7 +2922,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2883,28 +2937,28 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2923,19 +2977,19 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -2984,7 +3038,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2999,13 +3053,13 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3013,10 +3067,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3042,16 +3096,16 @@
         <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3076,13 +3130,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3100,7 +3154,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
@@ -3115,28 +3169,28 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3155,16 +3209,16 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3194,23 +3248,23 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3228,27 +3282,27 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3267,16 +3321,16 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3302,11 +3356,11 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3324,7 +3378,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3342,21 +3396,21 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3379,13 +3433,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3436,7 +3490,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3457,7 +3511,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3465,14 +3519,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3491,16 +3545,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3538,19 +3592,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3562,7 +3616,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3571,7 +3625,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3579,10 +3633,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3605,19 +3659,19 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3666,7 +3720,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3684,10 +3738,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3695,10 +3749,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3721,13 +3775,13 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3778,7 +3832,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3799,7 +3853,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -3807,14 +3861,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3833,16 +3887,16 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3880,19 +3934,19 @@
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3904,7 +3958,7 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -3913,7 +3967,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -3921,10 +3975,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3950,23 +4004,23 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>81</v>
@@ -4008,7 +4062,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4026,10 +4080,10 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4037,10 +4091,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4063,16 +4117,16 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4122,7 +4176,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4140,10 +4194,10 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4151,10 +4205,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4180,21 +4234,21 @@
         <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>81</v>
@@ -4236,7 +4290,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4254,10 +4308,10 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4265,10 +4319,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4291,17 +4345,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4311,7 +4365,7 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>81</v>
@@ -4350,7 +4404,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4368,10 +4422,10 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4379,10 +4433,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4405,19 +4459,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4466,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4484,10 +4538,10 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4495,10 +4549,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4521,19 +4575,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4582,7 +4636,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4600,10 +4654,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4611,14 +4665,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4637,16 +4691,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4672,11 +4726,11 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4694,7 +4748,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>89</v>
@@ -4709,28 +4763,28 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4749,19 +4803,19 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4810,7 +4864,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4825,28 +4879,28 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4865,19 +4919,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4926,7 +4980,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4941,28 +4995,28 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4981,19 +5035,19 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5042,7 +5096,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5057,28 +5111,28 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5097,19 +5151,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5158,7 +5212,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5176,25 +5230,25 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5213,19 +5267,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5274,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5289,28 +5343,28 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5329,19 +5383,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="N33" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5390,7 +5444,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5405,24 +5459,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5445,19 +5499,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5506,7 +5560,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5524,10 +5578,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5535,14 +5589,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5561,19 +5615,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5622,7 +5676,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5640,10 +5694,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5651,10 +5705,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5677,16 +5731,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5736,7 +5790,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5757,7 +5811,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5765,14 +5819,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5791,19 +5845,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5852,7 +5906,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5870,10 +5924,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -5881,10 +5935,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5907,13 +5961,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5964,7 +6018,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5985,7 +6039,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -5993,14 +6047,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6019,16 +6073,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6078,7 +6132,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6090,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6099,7 +6153,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6107,14 +6161,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6133,19 +6187,19 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6194,7 +6248,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6206,7 +6260,7 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6215,7 +6269,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6223,10 +6277,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6249,19 +6303,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6310,7 +6364,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6331,7 +6385,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6339,10 +6393,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6365,13 +6419,13 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6422,7 +6476,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>89</v>
@@ -6443,7 +6497,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6451,14 +6505,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6477,19 +6531,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6538,7 +6592,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6556,10 +6610,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6567,10 +6621,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6593,16 +6647,16 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6628,11 +6682,11 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6650,7 +6704,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6668,10 +6722,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6679,10 +6733,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6705,19 +6759,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6766,7 +6820,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6784,10 +6838,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
